--- a/utils/localisation_script/excel_to_json/bn/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/bn/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/bn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/bn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47376F2-364F-2448-8069-0FAC14D76FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C988FD-CACE-C045-B9B0-13242DEB74F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,33 +217,6 @@
     <t>Suno/thankyou</t>
   </si>
   <si>
-    <t>You’ve earned a &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; sentences.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">আপনি &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; টি বাক্য বৈধ করে একটি </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ভাষা সমর্থক ব্যাজ অর্জন করেছেন।</t>
-    </r>
-  </si>
-  <si>
     <t>Contribute your voice</t>
   </si>
   <si>
@@ -253,37 +226,43 @@
     <t>যা লেখা আছে, তাই বলছে কি</t>
   </si>
   <si>
-    <t>You’ve earned a &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; recordings</t>
-  </si>
-  <si>
-    <t>আপনি &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; টি রেকর্ডিং যাচাই করে একটি &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; ভাষা সমর্থক ব্যাজ অর্জন করেছেন।</t>
-  </si>
-  <si>
     <t>এখানে টাইপিং শুরু করুন</t>
   </si>
   <si>
-    <t>Help your language pair achieve it’s goal of &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; translations. We know you can do more!</t>
+    <t>You’ve earned a &lt;span id="current_badge_name_1"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id="current_badge_count"&gt;&lt;/span&gt; sentences.</t>
   </si>
   <si>
-    <t>আপনার ভাষার জুটিকে তার &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt;টি অনুবাদের লক্ষ্য অর্জনে সহায়তা করুন। আমরা জানি আপনি আরও কিছু করতে পারেন!</t>
+    <t>আপনি &lt;span id="current_badge_count"&gt;&lt;/span&gt; টি বাক্য বৈধ করে একটি &lt;span id="current_badge_name_1"&gt;&lt;/span&gt; ভাষা সমর্থক ব্যাজ অর্জন করেছেন।</t>
   </si>
   <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
+    <t>You’ve earned a &lt;span id="current_badge_name_1"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id="current_badge_count"&gt;&lt;/span&gt; recordings</t>
   </si>
   <si>
-    <t>এগিয়ে চলার জন্য আপনি&lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; শর্ত এবং শর্তাবলীতে&lt;/a&gt; সম্মত হন</t>
+    <t>আপনি &lt;span id="current_badge_count"&gt;&lt;/span&gt; টি রেকর্ডিং যাচাই করে একটি &lt;span id="current_badge_name_1"&gt;&lt;/span&gt; ভাষা সমর্থক ব্যাজ অর্জন করেছেন।</t>
   </si>
   <si>
-    <t>You’ve earned a &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; Images.</t>
+    <t>Help your language pair achieve it’s goal of &lt;span id="language-hour-goal"&gt;&lt;/span&gt; translations. We know you can do more!</t>
   </si>
   <si>
-    <t>আপনি &lt;span id=\"current_badge_count\"&gt;&lt;/span&gt; টি চিত্র বৈধ করে একটি &lt;span id=\"current_badge_name_1\"&gt;&lt;/span&gt; ভাষা সমর্থক ব্যাজ অর্জন করেছেন।</t>
+    <t>আপনার ভাষার জুটিকে তার &lt;span id="language-hour-goal"&gt;&lt;/span&gt;টি অনুবাদের লক্ষ্য অর্জনে সহায়তা করুন। আমরা জানি আপনি আরও কিছু করতে পারেন!</t>
   </si>
   <si>
-    <t>Help your language achieve it’s goal of &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; images. We know you can do more!</t>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
   </si>
   <si>
-    <t>আপনার ভাষাটিকে তার &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; চিত্রের লক্ষ্য পূরণে সহায়তা করুন। আমরা জানি আপনি আরও কিছু করতে পারেন!</t>
+    <t>এগিয়ে চলার জন্য আপনি&lt;a href="../terms-and-conditions.html" target="_blank"&gt; শর্ত এবং শর্তাবলীতে&lt;/a&gt; সম্মত হন</t>
+  </si>
+  <si>
+    <t>আপনি &lt;span id="current_badge_count"&gt;&lt;/span&gt; টি চিত্র বৈধ করে একটি &lt;span id="current_badge_name_1"&gt;&lt;/span&gt; ভাষা সমর্থক ব্যাজ অর্জন করেছেন।</t>
+  </si>
+  <si>
+    <t>Help your language achieve it’s goal of &lt;span id="language-hour-goal"&gt;&lt;/span&gt; images. We know you can do more!</t>
+  </si>
+  <si>
+    <t>আপনার ভাষাটিকে তার &lt;span id="language-hour-goal"&gt;&lt;/span&gt; চিত্রের লক্ষ্য পূরণে সহায়তা করুন। আমরা জানি আপনি আরও কিছু করতে পারেন!</t>
+  </si>
+  <si>
+    <t>You’ve earned a  &lt;span id="current_badge_name_1"&gt;&lt;/span&gt;  Bhasha Samarthak Badge by validating &lt;span id="current_badge_count"&gt;&lt;/span&gt; Images.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +577,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1671,11 +1650,11 @@
         <v>64</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1704,11 +1683,11 @@
     <row r="34" spans="1:27" ht="13">
       <c r="A34" s="4"/>
       <c r="B34" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1741,7 +1720,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1770,11 +1749,11 @@
     <row r="36" spans="1:27" ht="13">
       <c r="A36" s="4"/>
       <c r="B36" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1807,7 +1786,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1902,11 +1881,11 @@
     <row r="40" spans="1:27" ht="13">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1935,11 +1914,11 @@
     <row r="41" spans="1:27" ht="13">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
